--- a/data/trans_camb/P16B99-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16B99-Habitat-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
